--- a/datageneration/tests/data/Primary_Keys_test10.xlsx
+++ b/datageneration/tests/data/Primary_Keys_test10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27630"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27706"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deutschewelle.sharepoint.com/teams/GR-GR-ReCo-KID2/Freigegebene Dokumente/General/03_Ongoing Work/03C_MS_Spot - ongoing/03Cc_Development/Key-Value Pairs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6CE688C-764D-4C1A-AE25-99E98A8FE52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7270F832-46F4-47EA-9684-37B71232D3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35920" yWindow="-2460" windowWidth="35840" windowHeight="21100" xr2:uid="{0ED01DE8-A235-1045-8C96-52557544134F}"/>
   </bookViews>
@@ -543,7 +543,7 @@
     <t>amenity=childcare, amenity=kindergarten, building=kindergarten</t>
   </si>
   <si>
-    <t>clock|public clock| time| metronome| calendar| timer</t>
+    <t>public clock</t>
   </si>
   <si>
     <t>amenity=clock</t>
@@ -3375,7 +3375,7 @@
     <t>religion=***example***</t>
   </si>
   <si>
-    <t>catholic|roman catholic|sunni|baptist|lutheran|orthodox|anglican|protestant|methodist|russian orthodox|greek orthodox|jehovahs|evangelical|pentecostal|presbyterian|mormon|shia</t>
+    <t>denomination</t>
   </si>
   <si>
     <t>denomination=***example***</t>
@@ -4187,8 +4187,8 @@
   <dimension ref="A1:H605"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A574" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C593" sqref="C593"/>
+      <pane ySplit="1" topLeftCell="B522" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B541" sqref="B541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -13134,15 +13134,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="fef4af80-67d0-434d-aa7c-17eed15b0840">
@@ -13153,9 +13144,9 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BB17A56B5CDE7946ADE40FE50F9E0E05" ma:contentTypeVersion="18" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="c12e4e740a918a7fed87ba9ba111f97c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6d852b27-1d95-4577-ac49-0d344a1f93d0" xmlns:ns3="fef4af80-67d0-434d-aa7c-17eed15b0840" xmlns:ns4="69e77a95-4add-417d-ac50-c09752e64638" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e87260b9d5c1107f3f51cd8889399417" ns2:_="" ns3:_="" ns4:_="">
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BB17A56B5CDE7946ADE40FE50F9E0E05" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f1ef8fdae22ea8efa5f8e6ba78f2f5d7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6d852b27-1d95-4577-ac49-0d344a1f93d0" xmlns:ns3="fef4af80-67d0-434d-aa7c-17eed15b0840" xmlns:ns4="69e77a95-4add-417d-ac50-c09752e64638" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a57007e7f6e174e2eadbb94d9d2397b6" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6d852b27-1d95-4577-ac49-0d344a1f93d0"/>
     <xsd:import namespace="fef4af80-67d0-434d-aa7c-17eed15b0840"/>
     <xsd:import namespace="69e77a95-4add-417d-ac50-c09752e64638"/>
@@ -13192,7 +13183,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6d852b27-1d95-4577-ac49-0d344a1f93d0" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Freigegeben für" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -13211,7 +13202,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Freigegeben für - Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -13276,7 +13267,7 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkierungen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="27f97a9c-5df3-4967-8f8c-2479abf341ed" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="27f97a9c-5df3-4967-8f8c-2479abf341ed" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -13323,8 +13314,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -13413,16 +13404,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E49D155-2C11-4885-ACD3-E6D3BF89105E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2787CFFA-3460-4A04-BA0A-9FECDEAA6229}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2787CFFA-3460-4A04-BA0A-9FECDEAA6229}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B855CC39-79B7-471A-9581-96C02B6745EC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB476E3C-1092-486A-9BFE-5C9EC71BF137}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E49D155-2C11-4885-ACD3-E6D3BF89105E}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
